--- a/通讯录批量导入模板.xlsx
+++ b/通讯录批量导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>填写须知：</t>
   </si>
@@ -74,30 +74,222 @@
   </si>
   <si>
     <t>020-88985632</t>
+  </si>
+  <si>
+    <t>黑露白霜渝北店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李12</t>
+  </si>
+  <si>
+    <t>小李13</t>
+  </si>
+  <si>
+    <t>小李14</t>
+  </si>
+  <si>
+    <t>小李15</t>
+  </si>
+  <si>
+    <t>小李16</t>
+  </si>
+  <si>
+    <t>小李17</t>
   </si>
   <si>
     <t>店员</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>黑露白霜渝北店</t>
+    <t>xiaoli12@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli13@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli14@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli15@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli16@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli17@qq.com</t>
+  </si>
+  <si>
+    <t>020-88985633</t>
+  </si>
+  <si>
+    <t>020-88985634</t>
+  </si>
+  <si>
+    <t>020-88985635</t>
+  </si>
+  <si>
+    <t>020-88985636</t>
+  </si>
+  <si>
+    <t>020-88985637</t>
+  </si>
+  <si>
+    <t>020-88985638</t>
+  </si>
+  <si>
+    <t>020-88985639</t>
+  </si>
+  <si>
+    <t>020-88985640</t>
+  </si>
+  <si>
+    <t>020-88985641</t>
+  </si>
+  <si>
+    <t>020-88985642</t>
+  </si>
+  <si>
+    <t>020-88985643</t>
+  </si>
+  <si>
+    <t>020-88985644</t>
+  </si>
+  <si>
+    <t>020-88985645</t>
+  </si>
+  <si>
+    <t>020-88985646</t>
+  </si>
+  <si>
+    <t>020-88985647</t>
+  </si>
+  <si>
+    <t>020-88985648</t>
+  </si>
+  <si>
+    <t>xiaoli12</t>
+  </si>
+  <si>
+    <t>xiaoli13</t>
+  </si>
+  <si>
+    <t>xiaoli14</t>
+  </si>
+  <si>
+    <t>xiaoli15</t>
+  </si>
+  <si>
+    <t>xiaoli16</t>
+  </si>
+  <si>
+    <t>xiaoli17</t>
+  </si>
+  <si>
+    <t>小李11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>女</t>
+    <t>xiaoli11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小李</t>
+    <t>xiaoli11@qq.com</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoli</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoli@qq.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>xiaoli18@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli19@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli20@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli21@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli22@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli23@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli24@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli25@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli26@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli27@qq.com</t>
+  </si>
+  <si>
+    <t>xiaoli18</t>
+  </si>
+  <si>
+    <t>xiaoli19</t>
+  </si>
+  <si>
+    <t>xiaoli20</t>
+  </si>
+  <si>
+    <t>xiaoli21</t>
+  </si>
+  <si>
+    <t>xiaoli22</t>
+  </si>
+  <si>
+    <t>xiaoli23</t>
+  </si>
+  <si>
+    <t>xiaoli24</t>
+  </si>
+  <si>
+    <t>xiaoli25</t>
+  </si>
+  <si>
+    <t>xiaoli26</t>
+  </si>
+  <si>
+    <t>xiaoli27</t>
+  </si>
+  <si>
+    <t>小李18</t>
+  </si>
+  <si>
+    <t>小李19</t>
+  </si>
+  <si>
+    <t>小李20</t>
+  </si>
+  <si>
+    <t>小李21</t>
+  </si>
+  <si>
+    <t>小李22</t>
+  </si>
+  <si>
+    <t>小李23</t>
+  </si>
+  <si>
+    <t>小李24</t>
+  </si>
+  <si>
+    <t>小李25</t>
+  </si>
+  <si>
+    <t>小李26</t>
+  </si>
+  <si>
+    <t>小李27</t>
   </si>
 </sst>
 </file>
@@ -514,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -696,31 +888,495 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>13800000003</v>
+        <v>13800000023</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>13800000024</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>13800000025</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>13800000026</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>13800000027</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>13800000028</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>13800000029</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>13800000030</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>13800000031</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>13800000032</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>13800000033</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>13800000034</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>13800000035</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>13800000036</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>13800000037</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>13800000038</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>13800000039</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +1393,9 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1"/>
+    <hyperlink ref="I11:I26" r:id="rId2" display="xiaoli11@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>